--- a/Nivedha/TimeSheet/Schwall_TraineeNivedha_Timesheet_October_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_TraineeNivedha_Timesheet_October_2021.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
-  <si>
-    <t>SCHWALL WEEKLY TIMESHEET</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>SlNo</t>
   </si>
@@ -43,19 +40,28 @@
   <si>
     <t>6hrs</t>
   </si>
+  <si>
+    <t>Java Case Study, Collections and Java 1.8 features.</t>
+  </si>
+  <si>
+    <t>7hrs</t>
+  </si>
+  <si>
+    <t>SCHWALL WEEKLY TIMESHEET</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,39 +86,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,8 +100,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,15 +140,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,14 +170,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -195,6 +185,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,20 +208,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -230,6 +222,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -252,7 +251,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +275,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,13 +305,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,31 +377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,25 +401,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,79 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,17 +580,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,21 +599,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -659,6 +637,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -669,160 +677,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,7 +1168,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1182,9 +1181,7 @@
   <sheetData>
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1192,19 +1189,19 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -1215,25 +1212,39 @@
         <v>44470</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13">
+        <v>44473</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13">
+        <v>44474</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
@@ -2241,7 +2252,7 @@
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2250,19 +2261,19 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:6">

--- a/Nivedha/TimeSheet/Schwall_TraineeNivedha_Timesheet_October_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_TraineeNivedha_Timesheet_October_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>SlNo</t>
   </si>
@@ -41,10 +41,19 @@
     <t>6hrs</t>
   </si>
   <si>
-    <t>Java Case Study, Collections and Java 1.8 features.</t>
+    <t>Java Case Study, Collections and Java 8 features.</t>
   </si>
   <si>
     <t>7hrs</t>
+  </si>
+  <si>
+    <t>Java 8 :All features with examples.</t>
+  </si>
+  <si>
+    <t>5hrs</t>
+  </si>
+  <si>
+    <t>Java 8:Lambda,Method Ref and Functional Interface.</t>
   </si>
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
@@ -55,11 +64,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -86,8 +95,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,21 +150,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,58 +186,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,9 +209,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,14 +225,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,7 +260,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,25 +290,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,31 +362,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +404,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,91 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,8 +592,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,15 +622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -624,15 +633,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,6 +669,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -680,148 +689,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -845,7 +854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,7 +1177,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1245,16 +1254,32 @@
       <c r="C6" s="13">
         <v>44474</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13">
+        <v>44475</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="7"/>
@@ -2252,7 +2277,7 @@
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/Nivedha/TimeSheet/Schwall_TraineeNivedha_Timesheet_October_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_TraineeNivedha_Timesheet_October_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>SlNo</t>
   </si>
@@ -56,6 +56,12 @@
     <t>Java 8:Lambda,Method Ref and Functional Interface.</t>
   </si>
   <si>
+    <t>Collections:Hashmap,Tree map, set.</t>
+  </si>
+  <si>
+    <t>Java Case Study,Java 8 , debugging skills.</t>
+  </si>
+  <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
 </sst>
@@ -64,11 +70,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -95,25 +101,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,31 +123,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,9 +139,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,8 +192,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,28 +238,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -260,7 +266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,13 +278,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,132 +440,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -423,24 +447,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,18 +597,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,6 +621,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -633,6 +641,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,162 +692,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -854,7 +860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1177,7 +1183,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1282,21 +1288,43 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13">
+        <v>44476</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13">
+        <v>44477</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="7"/>
+      <c r="B10" s="7">
+        <v>7</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -2277,7 +2305,7 @@
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/Nivedha/TimeSheet/Schwall_TraineeNivedha_Timesheet_October_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_TraineeNivedha_Timesheet_October_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>SlNo</t>
   </si>
@@ -62,6 +62,9 @@
     <t>Java Case Study,Java 8 , debugging skills.</t>
   </si>
   <si>
+    <t>Functional Interface:Consumer,Predicate,Supplier.</t>
+  </si>
+  <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
 </sst>
@@ -70,10 +73,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
@@ -101,21 +104,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -131,7 +119,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,7 +127,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,14 +144,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,16 +211,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +232,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -266,13 +269,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,73 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,91 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,17 +594,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,151 +684,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,7 +1186,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1325,10 +1328,18 @@
       <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="13">
+        <v>44480</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="7"/>
@@ -2305,7 +2316,7 @@
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/Nivedha/TimeSheet/Schwall_TraineeNivedha_Timesheet_October_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_TraineeNivedha_Timesheet_October_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>SlNo</t>
   </si>
@@ -65,6 +65,27 @@
     <t>Functional Interface:Consumer,Predicate,Supplier.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hashtable/ hashset </t>
+  </si>
+  <si>
+    <t>Multi-Threading:with example</t>
+  </si>
+  <si>
+    <t>Exception Handling.</t>
+  </si>
+  <si>
+    <t>Jbpm</t>
+  </si>
+  <si>
+    <t>Skipable task.</t>
+  </si>
+  <si>
+    <t>4hrs</t>
+  </si>
+  <si>
+    <t>Oops Concepts with examples.</t>
+  </si>
+  <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
 </sst>
@@ -74,10 +95,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -104,6 +125,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,8 +140,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,22 +173,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +225,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -203,9 +240,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,7 +256,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,21 +264,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,6 +290,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -281,7 +308,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,25 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,13 +398,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,115 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,6 +615,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,17 +697,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,162 +716,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -863,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1186,7 +1207,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1342,39 +1363,89 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13">
+        <v>44481</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13">
+        <v>44482</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="7">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13">
+        <v>44483</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="7">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13">
+        <v>44484</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="7">
+        <v>12</v>
+      </c>
+      <c r="C15" s="13">
+        <v>44484</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="7"/>
@@ -2316,7 +2387,7 @@
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/Nivedha/TimeSheet/Schwall_TraineeNivedha_Timesheet_October_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_TraineeNivedha_Timesheet_October_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>SlNo</t>
   </si>
@@ -86,6 +86,27 @@
     <t>Oops Concepts with examples.</t>
   </si>
   <si>
+    <t>Exception methods.</t>
+  </si>
+  <si>
+    <t>Core java: constructor</t>
+  </si>
+  <si>
+    <t>Treemap with example.</t>
+  </si>
+  <si>
+    <t>Spring MVC.</t>
+  </si>
+  <si>
+    <t>Hashmap with example.</t>
+  </si>
+  <si>
+    <t>Multi-Threading:join()method with example.</t>
+  </si>
+  <si>
+    <t>8hrs</t>
+  </si>
+  <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
 </sst>
@@ -94,11 +115,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -125,14 +146,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -148,23 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,14 +220,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,26 +247,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,23 +261,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,6 +278,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,6 +311,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,7 +329,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +413,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,127 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +479,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,65 +640,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,6 +675,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -719,148 +740,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -884,7 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1206,8 +1227,8 @@
   <sheetPr/>
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1448,63 +1469,129 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="7">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13">
+        <v>44487</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="7">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13">
+        <v>44488</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="7">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13">
+        <v>44489</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="7">
+        <v>16</v>
+      </c>
+      <c r="C19" s="13">
+        <v>44490</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="7">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13">
+        <v>44491</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="7">
+        <v>18</v>
+      </c>
+      <c r="C21" s="13">
+        <v>44494</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="7"/>
+      <c r="B22" s="7">
+        <v>19</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="7"/>
+      <c r="B23" s="7">
+        <v>20</v>
+      </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="7"/>
+      <c r="B24" s="7">
+        <v>21</v>
+      </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2387,7 +2474,7 @@
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/Nivedha/TimeSheet/Schwall_TraineeNivedha_Timesheet_October_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_TraineeNivedha_Timesheet_October_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>SlNo</t>
   </si>
@@ -107,6 +107,12 @@
     <t>8hrs</t>
   </si>
   <si>
+    <t xml:space="preserve">Practise: Skippable task </t>
+  </si>
+  <si>
+    <t>Basic in Microservices.</t>
+  </si>
+  <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
 </sst>
@@ -115,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
@@ -146,24 +152,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +162,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,8 +182,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,15 +206,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +223,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,33 +251,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,12 +267,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -283,8 +281,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,13 +317,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,19 +347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,13 +371,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,49 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,19 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,13 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +485,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,11 +672,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,15 +718,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -731,157 +735,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1227,8 +1233,8 @@
   <sheetPr/>
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1574,32 +1580,54 @@
       <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="13">
+        <v>44495</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="C23" s="13">
+        <v>44496</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="13">
+        <v>44497</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="7">
+        <v>22</v>
+      </c>
+      <c r="C25" s="13">
+        <v>44498</v>
+      </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
@@ -2474,7 +2502,7 @@
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>

--- a/Nivedha/TimeSheet/Schwall_TraineeNivedha_Timesheet_October_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_TraineeNivedha_Timesheet_October_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>SlNo</t>
   </si>
@@ -113,6 +113,12 @@
     <t>Basic in Microservices.</t>
   </si>
   <si>
+    <t>Spring:Dependency Injection and IOC</t>
+  </si>
+  <si>
+    <t>SpringBoot:Annotations.</t>
+  </si>
+  <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
 </sst>
@@ -121,10 +127,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
@@ -152,6 +158,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -167,38 +181,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,9 +191,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,7 +228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,6 +242,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -251,10 +258,32 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,30 +296,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,55 +323,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,13 +401,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,37 +443,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,61 +491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,6 +656,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -670,24 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -699,6 +698,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,159 +743,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1234,7 +1240,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1617,9 +1623,15 @@
       <c r="C24" s="13">
         <v>44497</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="D24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="7">
@@ -1628,9 +1640,15 @@
       <c r="C25" s="13">
         <v>44498</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
+      <c r="D25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="7"/>
@@ -2502,7 +2520,7 @@
     <row r="1" ht="15.25"/>
     <row r="2" ht="21" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
